--- a/BD-bilheteria.xlsx
+++ b/BD-bilheteria.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Banco de dados - 2019" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Banco de dados - 2019'!$A$1:$I$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Banco de dados - 2019'!$A$1:$I$232</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="387">
   <si>
     <t>Avengers: Endgame</t>
   </si>
@@ -623,9 +623,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Aug. 9–15</t>
-  </si>
-  <si>
     <t>-13.5%</t>
   </si>
   <si>
@@ -635,69 +632,39 @@
     <t>Hobbs &amp; Shaw</t>
   </si>
   <si>
-    <t>Aug. 2–8</t>
-  </si>
-  <si>
     <t>-9.5%</t>
   </si>
   <si>
-    <t>Jul. 26–Aug. 1</t>
-  </si>
-  <si>
     <t>-36.2%</t>
   </si>
   <si>
     <t>The Lion King</t>
   </si>
   <si>
-    <t>Jul. 19–25</t>
-  </si>
-  <si>
     <t>+102.9%</t>
   </si>
   <si>
-    <t>Jul. 12–18</t>
-  </si>
-  <si>
     <t>-31.4%</t>
   </si>
   <si>
-    <t>Jul. 5–11</t>
-  </si>
-  <si>
     <t>-12.5%</t>
   </si>
   <si>
-    <t>Jun. 28–Jul. 4</t>
-  </si>
-  <si>
     <t>+3.5%</t>
   </si>
   <si>
-    <t>Jun. 21–27</t>
-  </si>
-  <si>
     <t>+53.4%</t>
   </si>
   <si>
-    <t>Jun. 14–20</t>
-  </si>
-  <si>
     <t>-16.8%</t>
   </si>
   <si>
-    <t>Jun. 7–13</t>
-  </si>
-  <si>
     <t>-3.4%</t>
   </si>
   <si>
     <t>The Secret Life of Pets 2</t>
   </si>
   <si>
-    <t>May 31–Jun. 6</t>
-  </si>
-  <si>
     <t>May 24–30</t>
   </si>
   <si>
@@ -725,117 +692,66 @@
     <t>-52.8%</t>
   </si>
   <si>
-    <t>Apr. 26–May2</t>
-  </si>
-  <si>
     <t>+285.0%</t>
   </si>
   <si>
-    <t>Apr. 19–25</t>
-  </si>
-  <si>
     <t>-6.1%</t>
   </si>
   <si>
-    <t>Apr. 12–18</t>
-  </si>
-  <si>
     <t>-19.8%</t>
   </si>
   <si>
-    <t>Apr. 5–11</t>
-  </si>
-  <si>
     <t>+4.9%</t>
   </si>
   <si>
-    <t>Mar. 29–Apr. 4</t>
-  </si>
-  <si>
     <t>-9.4%</t>
   </si>
   <si>
-    <t>Mar. 22–28</t>
-  </si>
-  <si>
     <t>+12.0%</t>
   </si>
   <si>
     <t>Us</t>
   </si>
   <si>
-    <t>Mar. 15–21</t>
-  </si>
-  <si>
     <t>-35.3%</t>
   </si>
   <si>
-    <t>Mar. 8–14</t>
-  </si>
-  <si>
     <t>+109.0%</t>
   </si>
   <si>
-    <t>Mar. 1–7</t>
-  </si>
-  <si>
     <t>How to Train Your Dragon 3</t>
   </si>
   <si>
-    <t>Feb. 22–28</t>
-  </si>
-  <si>
     <t>-7.0%</t>
   </si>
   <si>
-    <t>Feb. 15–21</t>
-  </si>
-  <si>
     <t>+11.9%</t>
   </si>
   <si>
-    <t>Feb. 8–14</t>
-  </si>
-  <si>
     <t>+86.6%</t>
   </si>
   <si>
     <t>LEGO Movie 2</t>
   </si>
   <si>
-    <t>Feb. 1–7</t>
-  </si>
-  <si>
     <t>-28.5%</t>
   </si>
   <si>
     <t>Glass</t>
   </si>
   <si>
-    <t>Jan. 25–31</t>
-  </si>
-  <si>
     <t>-37.8%</t>
   </si>
   <si>
-    <t>Jan. 18–24</t>
-  </si>
-  <si>
     <t>+15.7%</t>
   </si>
   <si>
-    <t>Jan. 11–17</t>
-  </si>
-  <si>
     <t>-12.2%</t>
   </si>
   <si>
     <t>The Upside</t>
   </si>
   <si>
-    <t>Jan. 4–10</t>
-  </si>
-  <si>
     <t>-46.5%</t>
   </si>
   <si>
@@ -1182,6 +1098,96 @@
   </si>
   <si>
     <t xml:space="preserve">Semester </t>
+  </si>
+  <si>
+    <t>Good Boys</t>
+  </si>
+  <si>
+    <t>August 16–22</t>
+  </si>
+  <si>
+    <t>August 9–15</t>
+  </si>
+  <si>
+    <t>August 2–8</t>
+  </si>
+  <si>
+    <t>July 26–August 1</t>
+  </si>
+  <si>
+    <t>July 19–25</t>
+  </si>
+  <si>
+    <t>July 12–18</t>
+  </si>
+  <si>
+    <t>July 5–11</t>
+  </si>
+  <si>
+    <t>January 25–31</t>
+  </si>
+  <si>
+    <t>January 18–24</t>
+  </si>
+  <si>
+    <t>January 11–17</t>
+  </si>
+  <si>
+    <t>January 4–10</t>
+  </si>
+  <si>
+    <t>February 22–28</t>
+  </si>
+  <si>
+    <t>February 15–21</t>
+  </si>
+  <si>
+    <t>February 8–14</t>
+  </si>
+  <si>
+    <t>February 1–7</t>
+  </si>
+  <si>
+    <t>March 22–28</t>
+  </si>
+  <si>
+    <t>March 15–21</t>
+  </si>
+  <si>
+    <t>March 8–14</t>
+  </si>
+  <si>
+    <t>March 1–7</t>
+  </si>
+  <si>
+    <t>April 26–May2</t>
+  </si>
+  <si>
+    <t>April 19–25</t>
+  </si>
+  <si>
+    <t>April 12–18</t>
+  </si>
+  <si>
+    <t>April 5–11</t>
+  </si>
+  <si>
+    <t>March 29–April 4</t>
+  </si>
+  <si>
+    <t>June 28–July 4</t>
+  </si>
+  <si>
+    <t>June 21–27</t>
+  </si>
+  <si>
+    <t>June 14–20</t>
+  </si>
+  <si>
+    <t>June 7–13</t>
+  </si>
+  <si>
+    <t>May 31–June 6</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1558,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -1569,36 +1576,36 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1">
         <v>9509736</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1">
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="F2" s="1">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -1627,7 +1634,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -1656,7 +1663,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -1685,7 +1692,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -1714,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H6" s="1">
         <v>2019</v>
@@ -1743,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H7" s="1">
         <v>2019</v>
@@ -1772,7 +1779,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H8" s="1">
         <v>2019</v>
@@ -1801,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H9" s="1">
         <v>2019</v>
@@ -1830,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H10" s="1">
         <v>2019</v>
@@ -1859,7 +1866,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H11" s="1">
         <v>2019</v>
@@ -1888,7 +1895,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H12" s="1">
         <v>2019</v>
@@ -1917,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -1946,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -1975,7 +1982,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H15" s="1">
         <v>2019</v>
@@ -2004,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H16" s="1">
         <v>2019</v>
@@ -2033,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H17" s="1">
         <v>2019</v>
@@ -2062,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H18" s="1">
         <v>2019</v>
@@ -2091,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H19" s="1">
         <v>2019</v>
@@ -2120,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H20" s="1">
         <v>2019</v>
@@ -2149,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1">
         <v>2019</v>
@@ -2178,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H22" s="1">
         <v>2019</v>
@@ -2207,7 +2214,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H23" s="1">
         <v>2019</v>
@@ -2236,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H24" s="1">
         <v>2019</v>
@@ -2265,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H25" s="1">
         <v>2019</v>
@@ -2294,7 +2301,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H26" s="1">
         <v>2019</v>
@@ -2323,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H27" s="1">
         <v>2019</v>
@@ -2352,7 +2359,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H28" s="1">
         <v>2019</v>
@@ -2381,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H29" s="1">
         <v>2019</v>
@@ -2410,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H30" s="1">
         <v>2019</v>
@@ -2439,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H31" s="1">
         <v>2019</v>
@@ -2468,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1">
         <v>2019</v>
@@ -2497,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H33" s="1">
         <v>2019</v>
@@ -2508,19 +2515,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B34" s="1">
         <v>2293366</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D34" s="1">
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="F34" s="1">
         <v>33</v>
@@ -4283,7 +4290,7 @@
         <v>360588857</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="D95" s="1">
         <v>23</v>
@@ -4451,54 +4458,54 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="B101" s="1">
-        <v>202037625</v>
+        <v>155605542</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="D101" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>201</v>
+        <v>357</v>
       </c>
       <c r="F101" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H101" s="1">
         <v>2019</v>
       </c>
-      <c r="I101" s="1">
-        <v>2</v>
+      <c r="I101" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="B102" s="1">
-        <v>226651674</v>
+        <v>202037625</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D102" s="1">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F102" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H102" s="1">
         <v>2019</v>
@@ -4509,25 +4516,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
       <c r="B103" s="1">
-        <v>252073394</v>
+        <v>226651674</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D103" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F103" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H103" s="1">
         <v>2019</v>
@@ -4538,25 +4545,25 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="B104" s="1">
-        <v>390786397</v>
+        <v>252073394</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D104" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F104" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H104" s="1">
         <v>2019</v>
@@ -4567,25 +4574,25 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="B105" s="1">
-        <v>202185585</v>
+        <v>390786397</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D105" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="F105" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H105" s="1">
         <v>2019</v>
@@ -4596,25 +4603,25 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B106" s="1">
-        <v>281594391</v>
+        <v>202185585</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D106" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H106" s="1">
         <v>2019</v>
@@ -4625,54 +4632,54 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>364</v>
       </c>
       <c r="B107" s="1">
-        <v>329966310</v>
+        <v>281594391</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D107" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F107" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H107" s="1">
         <v>2019</v>
       </c>
       <c r="I107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="B108" s="1">
-        <v>315999821</v>
+        <v>329966310</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D108" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H108" s="1">
         <v>2019</v>
@@ -4683,25 +4690,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="B109" s="1">
-        <v>205202760</v>
+        <v>315999821</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D109" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H109" s="1">
         <v>2019</v>
@@ -4712,25 +4719,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>219</v>
+        <v>384</v>
       </c>
       <c r="B110" s="1">
-        <v>242748152</v>
+        <v>205202760</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D110" s="1">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F110" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H110" s="1">
         <v>2019</v>
@@ -4741,25 +4748,25 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
       <c r="B111" s="1">
-        <v>251037482</v>
+        <v>242748152</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D111" s="1">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="F111" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H111" s="1">
         <v>2019</v>
@@ -4770,25 +4777,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="B112" s="1">
-        <v>283636310</v>
+        <v>251037482</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D112" s="1">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H112" s="1">
         <v>2019</v>
@@ -4799,25 +4806,25 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B113" s="1">
-        <v>203068045</v>
+        <v>283636310</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D113" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H113" s="1">
         <v>2019</v>
@@ -4828,25 +4835,25 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B114" s="1">
-        <v>219045838</v>
+        <v>203068045</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D114" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F114" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H114" s="1">
         <v>2019</v>
@@ -4857,25 +4864,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B115" s="1">
-        <v>257689351</v>
+        <v>219045838</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D115" s="1">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H115" s="1">
         <v>2019</v>
@@ -4886,13 +4893,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B116" s="1">
-        <v>536398847</v>
+        <v>257689351</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D116" s="1">
         <v>122</v>
@@ -4901,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H116" s="1">
         <v>2019</v>
@@ -4915,25 +4922,25 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="B117" s="1">
-        <v>150545710</v>
+        <v>536398847</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D117" s="1">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F117" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H117" s="1">
         <v>2019</v>
@@ -4944,25 +4951,25 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="B118" s="1">
-        <v>161987492</v>
+        <v>150545710</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D118" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F118" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H118" s="1">
         <v>2019</v>
@@ -4973,25 +4980,25 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>379</v>
       </c>
       <c r="B119" s="1">
-        <v>192518908</v>
+        <v>161987492</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D119" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F119" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H119" s="1">
         <v>2019</v>
@@ -5002,25 +5009,25 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="B120" s="1">
-        <v>184100507</v>
+        <v>192518908</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D120" s="1">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F120" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H120" s="1">
         <v>2019</v>
@@ -5031,25 +5038,25 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="B121" s="1">
-        <v>204106015</v>
+        <v>184100507</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D121" s="1">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="F121" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H121" s="1">
         <v>2019</v>
@@ -5060,25 +5067,25 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="B122" s="1">
-        <v>187934022</v>
+        <v>204106015</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D122" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="F122" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H122" s="1">
         <v>2019</v>
@@ -5089,25 +5096,25 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>247</v>
+        <v>374</v>
       </c>
       <c r="B123" s="1">
-        <v>281092067</v>
+        <v>187934022</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D123" s="1">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H123" s="1">
         <v>2019</v>
@@ -5118,25 +5125,25 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="B124" s="1">
-        <v>151446812</v>
+        <v>281092067</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="D124" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="F124" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H124" s="1">
         <v>2019</v>
@@ -5147,25 +5154,25 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="B125" s="1">
-        <v>165126012</v>
+        <v>151446812</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="D125" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F125" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H125" s="1">
         <v>2019</v>
@@ -5176,25 +5183,25 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="B126" s="1">
-        <v>183616667</v>
+        <v>165126012</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D126" s="1">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="F126" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H126" s="1">
         <v>2019</v>
@@ -5205,83 +5212,83 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="B127" s="1">
+        <v>183616667</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127" s="1">
+        <v>104</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F127" s="1">
+        <v>7</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" s="1">
         <v>173065562</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="1">
+      <c r="C128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" s="1">
         <v>103</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F127" s="1">
+      <c r="E128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F128" s="1">
         <v>6</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H127" s="1">
-        <v>2019</v>
-      </c>
-      <c r="I127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="1">
+      <c r="G128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129" s="1">
         <v>101919713</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="C129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" s="1">
         <v>92</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F128" s="1">
+      <c r="E129" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" s="1">
         <v>5</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H128" s="1">
-        <v>2019</v>
-      </c>
-      <c r="I128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B129" s="1">
-        <v>137647317</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129" s="1">
-        <v>91</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F129" s="1">
-        <v>4</v>
-      </c>
       <c r="G129" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H129" s="1">
         <v>2019</v>
@@ -5292,25 +5299,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B130" s="1">
-        <v>196070313</v>
+        <v>137647317</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F130" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H130" s="1">
         <v>2019</v>
@@ -5321,25 +5328,25 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="B131" s="1">
-        <v>174382383</v>
+        <v>196070313</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D131" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="F131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H131" s="1">
         <v>2019</v>
@@ -5350,25 +5357,25 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="B132" s="1">
-        <v>189600467</v>
+        <v>174382383</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D132" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H132" s="1">
         <v>2019</v>
@@ -5379,54 +5386,54 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="B133" s="1">
-        <v>16278812</v>
+        <v>189600467</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="D133" s="1">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="F133" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="H133" s="1">
         <v>2019</v>
       </c>
       <c r="I133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="B134" s="1">
-        <v>13102188</v>
+        <v>16278812</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="D134" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="F134" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H134" s="1">
         <v>2019</v>
@@ -5437,25 +5444,25 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1">
-        <v>17551322</v>
+        <v>13102188</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="D135" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F135" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H135" s="1">
         <v>2019</v>
@@ -5466,25 +5473,25 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B136" s="1">
-        <v>12039561</v>
+        <v>17551322</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="D136" s="1">
+        <v>29</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
         <v>31</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="1">
-        <v>30</v>
-      </c>
       <c r="G136" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H136" s="1">
         <v>2019</v>
@@ -5495,25 +5502,25 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B137" s="1">
-        <v>18274268</v>
+        <v>12039561</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="D137" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F137" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H137" s="1">
         <v>2019</v>
@@ -5524,25 +5531,25 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B138" s="1">
-        <v>12149851</v>
+        <v>18274268</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" s="1">
+        <v>35</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>29</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D138" s="1">
-        <v>23</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138" s="1">
-        <v>28</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="H138" s="1">
         <v>2019</v>
@@ -5553,25 +5560,25 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1">
-        <v>12262599</v>
+        <v>12149851</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D139" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H139" s="1">
         <v>2019</v>
@@ -5582,54 +5589,54 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B140" s="1">
-        <v>4649580</v>
+        <v>12262599</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D140" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="F140" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H140" s="1">
         <v>2019</v>
       </c>
       <c r="I140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4649580</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" s="1">
+        <v>23</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F141" s="1">
         <v>26</v>
       </c>
-      <c r="B141" s="1">
-        <v>7074798</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D141" s="1">
-        <v>33</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" s="1">
-        <v>25</v>
-      </c>
       <c r="G141" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H141" s="1">
         <v>2019</v>
@@ -5640,25 +5647,25 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1">
-        <v>6436893</v>
+        <v>7074798</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D142" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F142" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H142" s="1">
         <v>2019</v>
@@ -5669,25 +5676,25 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B143" s="1">
-        <v>8930819</v>
+        <v>6436893</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D143" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F143" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H143" s="1">
         <v>2019</v>
@@ -5698,25 +5705,25 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B144" s="1">
-        <v>11464786</v>
+        <v>8930819</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="D144" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F144" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H144" s="1">
         <v>2019</v>
@@ -5727,25 +5734,25 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B145" s="1">
-        <v>10883302</v>
+        <v>11464786</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="D145" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H145" s="1">
         <v>2019</v>
@@ -5756,25 +5763,25 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B146" s="1">
-        <v>8148211</v>
+        <v>10883302</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="D146" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F146" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H146" s="1">
         <v>2019</v>
@@ -5785,25 +5792,25 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B147" s="1">
-        <v>14188900</v>
+        <v>8148211</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D147" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F147" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H147" s="1">
         <v>2019</v>
@@ -5814,25 +5821,25 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1">
-        <v>16243713</v>
+        <v>14188900</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D148" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H148" s="1">
         <v>2019</v>
@@ -5843,25 +5850,25 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B149" s="1">
-        <v>33434265</v>
+        <v>16243713</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="D149" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H149" s="1">
         <v>2019</v>
@@ -5872,25 +5879,25 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B150" s="1">
-        <v>5942761</v>
+        <v>33434265</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D150" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="F150" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H150" s="1">
         <v>2019</v>
@@ -5901,25 +5908,25 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B151" s="1">
-        <v>12093170</v>
+        <v>5942761</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D151" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="F151" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H151" s="1">
         <v>2019</v>
@@ -5930,25 +5937,25 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B152" s="1">
-        <v>8693707</v>
+        <v>12093170</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D152" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F152" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H152" s="1">
         <v>2019</v>
@@ -5959,25 +5966,25 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B153" s="1">
-        <v>7722525</v>
+        <v>8693707</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="D153" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="F153" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H153" s="1">
         <v>2019</v>
@@ -5988,25 +5995,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B154" s="1">
-        <v>8778689</v>
+        <v>7722525</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="D154" s="1">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H154" s="1">
         <v>2019</v>
@@ -6017,25 +6024,25 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B155" s="1">
-        <v>12285352</v>
+        <v>8778689</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="D155" s="1">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H155" s="1">
         <v>2019</v>
@@ -6046,25 +6053,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B156" s="1">
-        <v>17748954</v>
+        <v>12285352</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D156" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H156" s="1">
         <v>2019</v>
@@ -6075,25 +6082,25 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B157" s="1">
-        <v>11715564</v>
+        <v>17748954</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D157" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="F157" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H157" s="1">
         <v>2019</v>
@@ -6104,25 +6111,25 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B158" s="1">
-        <v>9609928</v>
+        <v>11715564</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="D158" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F158" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H158" s="1">
         <v>2019</v>
@@ -6133,25 +6140,25 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B159" s="1">
-        <v>13838500</v>
+        <v>9609928</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="D159" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F159" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H159" s="1">
         <v>2019</v>
@@ -6162,25 +6169,25 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B160" s="1">
-        <v>16611360</v>
+        <v>13838500</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D160" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F160" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H160" s="1">
         <v>2019</v>
@@ -6191,25 +6198,25 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B161" s="1">
-        <v>13600259</v>
+        <v>16611360</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="D161" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F161" s="1">
         <v>6</v>
       </c>
-      <c r="F161" s="1">
-        <v>5</v>
-      </c>
       <c r="G161" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H161" s="1">
         <v>2019</v>
@@ -6220,25 +6227,25 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B162" s="1">
-        <v>14839396</v>
+        <v>13600259</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="D162" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F162" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H162" s="1">
         <v>2019</v>
@@ -6249,25 +6256,25 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B163" s="1">
-        <v>12520236</v>
+        <v>14839396</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D163" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="F163" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H163" s="1">
         <v>2019</v>
@@ -6278,25 +6285,25 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B164" s="1">
-        <v>13381750</v>
+        <v>12520236</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D164" s="1">
         <v>27</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="F164" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H164" s="1">
         <v>2019</v>
@@ -6307,25 +6314,25 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B165" s="1">
-        <v>20117827</v>
+        <v>13381750</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D165" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="F165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="H165" s="1">
         <v>2019</v>
@@ -6336,54 +6343,54 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B166" s="1">
-        <v>857404</v>
+        <v>20117827</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="D166" s="1">
         <v>26</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="F166" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H166" s="1">
         <v>2019</v>
       </c>
       <c r="I166" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B167" s="1">
-        <v>1643350</v>
+        <v>857404</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D167" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F167" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H167" s="1">
         <v>2019</v>
@@ -6394,13 +6401,13 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B168" s="1">
-        <v>1863611</v>
+        <v>1643350</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D168" s="1">
         <v>25</v>
@@ -6409,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="F168" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H168" s="1">
         <v>2019</v>
@@ -6423,25 +6430,25 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B169" s="1">
-        <v>1986843</v>
+        <v>1863611</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D169" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F169" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H169" s="1">
         <v>2019</v>
@@ -6452,25 +6459,25 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B170" s="1">
-        <v>2336444</v>
+        <v>1986843</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D170" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F170" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H170" s="1">
         <v>2019</v>
@@ -6481,25 +6488,25 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B171" s="1">
-        <v>912196</v>
+        <v>2336444</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" s="1">
+        <v>25</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1">
+        <v>29</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D171" s="1">
-        <v>23</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="1">
-        <v>28</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="H171" s="1">
         <v>2019</v>
@@ -6510,25 +6517,25 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B172" s="1">
-        <v>2063632</v>
+        <v>912196</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D172" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F172" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H172" s="1">
         <v>2019</v>
@@ -6539,54 +6546,54 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B173" s="1">
-        <v>1535966</v>
+        <v>2063632</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D173" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="F173" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H173" s="1">
         <v>2019</v>
       </c>
       <c r="I173" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B174" s="1">
-        <v>1101737</v>
+        <v>1535966</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D174" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="F174" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H174" s="1">
         <v>2019</v>
@@ -6597,25 +6604,25 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B175" s="1">
-        <v>899852</v>
+        <v>1101737</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D175" s="1">
         <v>23</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H175" s="1">
         <v>2019</v>
@@ -6626,25 +6633,25 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B176" s="1">
-        <v>932468</v>
+        <v>899852</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D176" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H176" s="1">
         <v>2019</v>
@@ -6655,25 +6662,25 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" s="1">
-        <v>864292</v>
+        <v>932468</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D177" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H177" s="1">
         <v>2019</v>
@@ -6684,25 +6691,25 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B178" s="1">
-        <v>1007599</v>
+        <v>864292</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D178" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H178" s="1">
         <v>2019</v>
@@ -6713,25 +6720,25 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B179" s="1">
-        <v>947563</v>
+        <v>1007599</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="D179" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H179" s="1">
         <v>2019</v>
@@ -6742,25 +6749,25 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B180" s="1">
-        <v>854335</v>
+        <v>947563</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D180" s="1">
         <v>29</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F180" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H180" s="1">
         <v>2019</v>
@@ -6771,25 +6778,25 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B181" s="1">
-        <v>1790652</v>
+        <v>854335</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D181" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F181" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H181" s="1">
         <v>2019</v>
@@ -6800,25 +6807,25 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="B182" s="1">
-        <v>3034371</v>
+        <v>1790652</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D182" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F182" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H182" s="1">
         <v>2019</v>
@@ -6829,25 +6836,25 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B183" s="1">
-        <v>1234530</v>
+        <v>3034371</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D183" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="F183" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H183" s="1">
         <v>2019</v>
@@ -6858,25 +6865,25 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B184" s="1">
-        <v>739133</v>
+        <v>1234530</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D184" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="F184" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H184" s="1">
         <v>2019</v>
@@ -6887,25 +6894,25 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B185" s="1">
-        <v>955282</v>
+        <v>739133</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D185" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F185" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H185" s="1">
         <v>2019</v>
@@ -6916,25 +6923,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B186" s="1">
-        <v>1058669</v>
+        <v>955282</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D186" s="1">
         <v>26</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F186" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H186" s="1">
         <v>2019</v>
@@ -6945,25 +6952,25 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B187" s="1">
-        <v>1184243</v>
+        <v>1058669</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="D187" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H187" s="1">
         <v>2019</v>
@@ -6974,25 +6981,25 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B188" s="1">
-        <v>1086208</v>
+        <v>1184243</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D188" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F188" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H188" s="1">
         <v>2019</v>
@@ -7003,25 +7010,25 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B189" s="1">
-        <v>1337198</v>
+        <v>1086208</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H189" s="1">
         <v>2019</v>
@@ -7032,25 +7039,25 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B190" s="1">
-        <v>875674</v>
+        <v>1337198</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D190" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>297</v>
+        <v>2</v>
       </c>
       <c r="F190" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H190" s="1">
         <v>2019</v>
@@ -7061,25 +7068,25 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B191" s="1">
-        <v>884029</v>
+        <v>875674</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="D191" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F191" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H191" s="1">
         <v>2019</v>
@@ -7090,25 +7097,25 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B192" s="1">
-        <v>858494</v>
+        <v>884029</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="D192" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="F192" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H192" s="1">
         <v>2019</v>
@@ -7119,25 +7126,25 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B193" s="1">
-        <v>773787</v>
+        <v>858494</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="D193" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F193" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H193" s="1">
         <v>2019</v>
@@ -7148,25 +7155,25 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B194" s="1">
-        <v>1121894</v>
+        <v>773787</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="D194" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F194" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H194" s="1">
         <v>2019</v>
@@ -7177,25 +7184,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B195" s="1">
-        <v>912303</v>
+        <v>1121894</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D195" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="F195" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H195" s="1">
         <v>2019</v>
@@ -7206,25 +7213,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B196" s="1">
-        <v>774425</v>
+        <v>912303</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D196" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F196" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H196" s="1">
         <v>2019</v>
@@ -7235,25 +7242,25 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B197" s="1">
-        <v>894015</v>
+        <v>774425</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D197" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F197" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H197" s="1">
         <v>2019</v>
@@ -7264,25 +7271,25 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B198" s="1">
-        <v>1307028</v>
+        <v>894015</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D198" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H198" s="1">
         <v>2019</v>
@@ -7293,54 +7300,54 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="B199" s="1">
-        <v>9629896</v>
+        <v>1307028</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="D199" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="F199" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="H199" s="1">
         <v>2019</v>
       </c>
       <c r="I199" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="B200" s="1">
-        <v>9203116</v>
+        <v>9629896</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="D200" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="F200" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H200" s="1">
         <v>2019</v>
@@ -7351,25 +7358,25 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201" s="1">
-        <v>11634122</v>
+        <v>9203116</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="D201" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>353</v>
+        <v>1</v>
       </c>
       <c r="F201" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H201" s="1">
         <v>2019</v>
@@ -7380,25 +7387,25 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1">
-        <v>12593716</v>
+        <v>11634122</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="D202" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="F202" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H202" s="1">
         <v>2019</v>
@@ -7409,25 +7416,25 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B203" s="1">
-        <v>21024860</v>
+        <v>12593716</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D203" s="1">
+        <v>38</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>30</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D203" s="1">
-        <v>43</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1">
-        <v>29</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="H203" s="1">
         <v>2019</v>
@@ -7438,25 +7445,25 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B204" s="1">
-        <v>14891613</v>
+        <v>21024860</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="D204" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F204" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H204" s="1">
         <v>2019</v>
@@ -7467,25 +7474,25 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B205" s="1">
-        <v>17818246</v>
+        <v>14891613</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="D205" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F205" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H205" s="1">
         <v>2019</v>
@@ -7496,42 +7503,42 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B206" s="1">
-        <v>13309418</v>
+        <v>17818246</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D206" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F206" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H206" s="1">
         <v>2019</v>
       </c>
       <c r="I206" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B207" s="1">
-        <v>12736325</v>
+        <v>13309418</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="D207" s="1">
         <v>34</v>
@@ -7540,10 +7547,10 @@
         <v>3</v>
       </c>
       <c r="F207" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H207" s="1">
         <v>2019</v>
@@ -7554,25 +7561,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B208" s="1">
-        <v>8847979</v>
+        <v>12736325</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="D208" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="F208" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H208" s="1">
         <v>2019</v>
@@ -7583,25 +7590,25 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B209" s="1">
-        <v>11322315</v>
+        <v>8847979</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D209" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="F209" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H209" s="1">
         <v>2019</v>
@@ -7612,25 +7619,25 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B210" s="1">
-        <v>12442253</v>
+        <v>11322315</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D210" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F210" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H210" s="1">
         <v>2019</v>
@@ -7641,25 +7648,25 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B211" s="1">
-        <v>11647417</v>
+        <v>12442253</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="D211" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F211" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H211" s="1">
         <v>2019</v>
@@ -7670,25 +7677,25 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B212" s="1">
-        <v>9758113</v>
+        <v>11647417</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="D212" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="F212" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H212" s="1">
         <v>2019</v>
@@ -7699,25 +7706,25 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B213" s="1">
-        <v>11405925</v>
+        <v>9758113</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="D213" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F213" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H213" s="1">
         <v>2019</v>
@@ -7728,25 +7735,25 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B214" s="1">
-        <v>12552842</v>
+        <v>11405925</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="D214" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F214" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H214" s="1">
         <v>2019</v>
@@ -7757,25 +7764,25 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B215" s="1">
-        <v>27543919</v>
+        <v>12552842</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D215" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F215" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H215" s="1">
         <v>2019</v>
@@ -7786,25 +7793,25 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B216" s="1">
-        <v>8816077</v>
+        <v>27543919</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="D216" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F216" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H216" s="1">
         <v>2019</v>
@@ -7815,25 +7822,25 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B217" s="1">
-        <v>9525395</v>
+        <v>8816077</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="D217" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F217" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H217" s="1">
         <v>2019</v>
@@ -7844,25 +7851,25 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B218" s="1">
-        <v>9414734</v>
+        <v>9525395</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D218" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F218" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H218" s="1">
         <v>2019</v>
@@ -7873,25 +7880,25 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B219" s="1">
-        <v>10209267</v>
+        <v>9414734</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D219" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="F219" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H219" s="1">
         <v>2019</v>
@@ -7902,25 +7909,25 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B220" s="1">
-        <v>7366156</v>
+        <v>10209267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D220" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="F220" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H220" s="1">
         <v>2019</v>
@@ -7931,25 +7938,25 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B221" s="1">
-        <v>8446698</v>
+        <v>7366156</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="D221" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H221" s="1">
         <v>2019</v>
@@ -7960,25 +7967,25 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B222" s="1">
-        <v>13057421</v>
+        <v>8446698</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>372</v>
+        <v>228</v>
       </c>
       <c r="D222" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H222" s="1">
         <v>2019</v>
@@ -7989,25 +7996,25 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B223" s="1">
-        <v>6533284</v>
+        <v>13057421</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D223" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F223" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H223" s="1">
         <v>2019</v>
@@ -8018,25 +8025,25 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B224" s="1">
-        <v>6921451</v>
+        <v>6533284</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="D224" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F224" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H224" s="1">
         <v>2019</v>
@@ -8047,13 +8054,13 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B225" s="1">
-        <v>9308123</v>
+        <v>6921451</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="D225" s="1">
         <v>51</v>
@@ -8062,10 +8069,10 @@
         <v>69</v>
       </c>
       <c r="F225" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H225" s="1">
         <v>2019</v>
@@ -8076,25 +8083,25 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B226" s="1">
-        <v>7208491</v>
+        <v>9308123</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="D226" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="F226" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H226" s="1">
         <v>2019</v>
@@ -8105,25 +8112,25 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B227" s="1">
-        <v>8541203</v>
+        <v>7208491</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="D227" s="1">
         <v>48</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="F227" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H227" s="1">
         <v>2019</v>
@@ -8134,25 +8141,25 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B228" s="1">
-        <v>12894530</v>
+        <v>8541203</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="D228" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F228" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H228" s="1">
         <v>2019</v>
@@ -8163,25 +8170,25 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B229" s="1">
-        <v>13488154</v>
+        <v>12894530</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D229" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="F229" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H229" s="1">
         <v>2019</v>
@@ -8192,25 +8199,25 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B230" s="1">
-        <v>14260768</v>
+        <v>13488154</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D230" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F230" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H230" s="1">
         <v>2019</v>
@@ -8221,30 +8228,59 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231" s="1">
+        <v>14260768</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D231" s="1">
+        <v>47</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F231" s="1">
+        <v>2</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H231" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B232" s="1">
         <v>19294372</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D231" s="1">
+      <c r="C232" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D232" s="1">
         <v>48</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F231" s="1">
-        <v>1</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H231" s="1">
-        <v>2019</v>
-      </c>
-      <c r="I231" s="1">
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H232" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I232" s="1">
         <v>1</v>
       </c>
     </row>
